--- a/public/cpmm.xlsx
+++ b/public/cpmm.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\EMEAREPORT\my-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{569FDB59-97BF-4957-AF21-944F24C6E561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE56D5B1-45DF-40AE-9BC5-07DAFC0C8E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{066623EA-76BA-4FB8-A94D-1173B470C982}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
   <si>
     <t>Country</t>
   </si>
@@ -548,10 +548,14 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I15"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -746,8 +750,8 @@
       <c r="F7" t="s">
         <v>41</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
+      <c r="G7">
+        <v>1</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>

--- a/public/cpmm.xlsx
+++ b/public/cpmm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\EMEAREPORT\my-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE56D5B1-45DF-40AE-9BC5-07DAFC0C8E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E526B39-6C34-4A75-87DB-6CC173EBD2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{066623EA-76BA-4FB8-A94D-1173B470C982}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="48">
   <si>
     <t>Country</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
   </si>
 </sst>
 </file>
@@ -545,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F47E9A9-3482-4394-BDDC-2B1553D8196F}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -992,6 +998,412 @@
         <v>45</v>
       </c>
     </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>7</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
